--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds.xlsx
@@ -4,15 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="30015" windowHeight="8325"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="29040" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Object Creation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondType">'Object Creation'!$D$3</definedName>
     <definedName name="Currency">'Object Creation'!#REF!</definedName>
@@ -85,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="227">
   <si>
     <t>General Settings</t>
   </si>
@@ -763,6 +760,9 @@
   </si>
   <si>
     <t xml:space="preserve">BACRED 0 12/21/17 </t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
     <numFmt numFmtId="170" formatCode="ddd\,\ d\-mmm\-yyyy"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1391,22 +1391,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1701,7 +1685,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
@@ -1713,13 +1697,13 @@
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1">
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:5" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="74" t="s">
         <v>0</v>
@@ -1728,14 +1712,14 @@
       <c r="D2" s="75"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
@@ -1744,7 +1728,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
@@ -1755,7 +1739,7 @@
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
@@ -1766,7 +1750,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
@@ -1777,19 +1761,18 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\080_Bond\010_BondDataBase\</v>
+      <c r="D8" s="11" t="s">
+        <v>226</v>
       </c>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
@@ -1800,7 +1783,7 @@
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1827,7 +1810,7 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
@@ -1867,8 +1850,8 @@
     <col min="37" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1"/>
-    <row r="2" spans="2:36" s="1" customFormat="1">
+    <row r="1" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
@@ -1905,7 +1888,7 @@
       <c r="AI2" s="18"/>
       <c r="AJ2" s="19"/>
     </row>
-    <row r="3" spans="2:36" s="1" customFormat="1">
+    <row r="3" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="24" t="s">
         <v>10</v>
@@ -1946,7 +1929,7 @@
       <c r="AI3" s="21"/>
       <c r="AJ3" s="22"/>
     </row>
-    <row r="4" spans="2:36" s="1" customFormat="1">
+    <row r="4" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="20"/>
       <c r="C4" s="24" t="s">
         <v>30</v>
@@ -1987,7 +1970,7 @@
       <c r="AI4" s="21"/>
       <c r="AJ4" s="22"/>
     </row>
-    <row r="5" spans="2:36" s="1" customFormat="1">
+    <row r="5" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="20"/>
       <c r="C5" s="40" t="s">
         <v>38</v>
@@ -2029,17 +2012,17 @@
       <c r="AI5" s="21"/>
       <c r="AJ5" s="22"/>
     </row>
-    <row r="6" spans="2:36" s="1" customFormat="1">
+    <row r="6" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20"/>
       <c r="C6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="25" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F9:J54,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>230</v>
+        <v>#NUM!</v>
       </c>
       <c r="E6" s="41" t="str">
-        <f>_xll.ohRangeRetrieveError(D6)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(D6)</f>
         <v/>
       </c>
       <c r="F6" s="21"/>
@@ -2074,7 +2057,7 @@
       <c r="AI6" s="21"/>
       <c r="AJ6" s="22"/>
     </row>
-    <row r="7" spans="2:36" s="1" customFormat="1">
+    <row r="7" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2111,7 +2094,7 @@
       <c r="AI7" s="21"/>
       <c r="AJ7" s="22"/>
     </row>
-    <row r="8" spans="2:36" s="1" customFormat="1">
+    <row r="8" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
       <c r="D8" s="39" t="s">
@@ -2212,7 +2195,7 @@
       </c>
       <c r="AJ8" s="22"/>
     </row>
-    <row r="9" spans="2:36" s="1" customFormat="1">
+    <row r="9" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="20"/>
       <c r="C9" s="23" t="s">
         <v>52</v>
@@ -2320,7 +2303,7 @@
       <c r="AI9" s="43"/>
       <c r="AJ9" s="7"/>
     </row>
-    <row r="10" spans="2:36" s="1" customFormat="1">
+    <row r="10" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="20"/>
       <c r="C10" s="42" t="s">
         <v>56</v>
@@ -2426,7 +2409,7 @@
       <c r="AI10" s="43"/>
       <c r="AJ10" s="7"/>
     </row>
-    <row r="11" spans="2:36" s="1" customFormat="1">
+    <row r="11" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="20"/>
       <c r="C11" s="42" t="s">
         <v>58</v>
@@ -2534,7 +2517,7 @@
       <c r="AI11" s="43"/>
       <c r="AJ11" s="7"/>
     </row>
-    <row r="12" spans="2:36" s="1" customFormat="1">
+    <row r="12" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="20"/>
       <c r="C12" s="42" t="s">
         <v>68</v>
@@ -2642,7 +2625,7 @@
       <c r="AI12" s="43"/>
       <c r="AJ12" s="7"/>
     </row>
-    <row r="13" spans="2:36" s="1" customFormat="1">
+    <row r="13" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
       <c r="C13" s="42" t="s">
         <v>69</v>
@@ -2750,7 +2733,7 @@
       <c r="AI13" s="43"/>
       <c r="AJ13" s="7"/>
     </row>
-    <row r="14" spans="2:36" s="1" customFormat="1">
+    <row r="14" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20"/>
       <c r="C14" s="42" t="s">
         <v>66</v>
@@ -2858,7 +2841,7 @@
       <c r="AI14" s="43"/>
       <c r="AJ14" s="7"/>
     </row>
-    <row r="15" spans="2:36" s="1" customFormat="1">
+    <row r="15" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="20"/>
       <c r="C15" s="42" t="s">
         <v>67</v>
@@ -2968,7 +2951,7 @@
       <c r="AI15" s="43"/>
       <c r="AJ15" s="7"/>
     </row>
-    <row r="16" spans="2:36" s="1" customFormat="1">
+    <row r="16" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="20"/>
       <c r="C16" s="42" t="s">
         <v>64</v>
@@ -3077,7 +3060,7 @@
       <c r="AI16" s="43"/>
       <c r="AJ16" s="7"/>
     </row>
-    <row r="17" spans="2:36" s="1" customFormat="1">
+    <row r="17" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="20"/>
       <c r="C17" s="42" t="s">
         <v>79</v>
@@ -3186,7 +3169,7 @@
       <c r="AI17" s="43"/>
       <c r="AJ17" s="7"/>
     </row>
-    <row r="18" spans="2:36" s="1" customFormat="1">
+    <row r="18" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
       <c r="C18" s="42" t="s">
         <v>81</v>
@@ -3296,7 +3279,7 @@
       <c r="AI18" s="43"/>
       <c r="AJ18" s="7"/>
     </row>
-    <row r="19" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="19" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B19" s="56"/>
       <c r="C19" s="42" t="s">
         <v>83</v>
@@ -3404,7 +3387,7 @@
       <c r="AI19" s="43"/>
       <c r="AJ19" s="7"/>
     </row>
-    <row r="20" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="20" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B20" s="56"/>
       <c r="C20" s="42" t="s">
         <v>94</v>
@@ -3511,7 +3494,7 @@
       <c r="AI20" s="45"/>
       <c r="AJ20" s="7"/>
     </row>
-    <row r="21" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="21" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B21" s="56"/>
       <c r="C21" s="42" t="s">
         <v>98</v>
@@ -3618,7 +3601,7 @@
       <c r="AI21" s="45"/>
       <c r="AJ21" s="7"/>
     </row>
-    <row r="22" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="22" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B22" s="56"/>
       <c r="C22" s="42" t="s">
         <v>100</v>
@@ -3725,7 +3708,7 @@
       <c r="AI22" s="45"/>
       <c r="AJ22" s="7"/>
     </row>
-    <row r="23" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="23" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B23" s="56"/>
       <c r="C23" s="42" t="s">
         <v>103</v>
@@ -3832,7 +3815,7 @@
       <c r="AI23" s="45"/>
       <c r="AJ23" s="7"/>
     </row>
-    <row r="24" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="24" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B24" s="56"/>
       <c r="C24" s="42" t="s">
         <v>105</v>
@@ -3939,7 +3922,7 @@
       <c r="AI24" s="45"/>
       <c r="AJ24" s="7"/>
     </row>
-    <row r="25" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="25" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B25" s="56"/>
       <c r="C25" s="42" t="s">
         <v>109</v>
@@ -4046,7 +4029,7 @@
       <c r="AI25" s="45"/>
       <c r="AJ25" s="7"/>
     </row>
-    <row r="26" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="26" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B26" s="56"/>
       <c r="C26" s="42" t="s">
         <v>124</v>
@@ -4155,7 +4138,7 @@
       <c r="AI26" s="45"/>
       <c r="AJ26" s="7"/>
     </row>
-    <row r="27" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="27" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B27" s="56"/>
       <c r="C27" s="42" t="s">
         <v>203</v>
@@ -4260,7 +4243,7 @@
       <c r="AI27" s="45"/>
       <c r="AJ27" s="7"/>
     </row>
-    <row r="28" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="28" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B28" s="56"/>
       <c r="C28" s="42" t="s">
         <v>205</v>
@@ -4367,7 +4350,7 @@
       <c r="AI28" s="45"/>
       <c r="AJ28" s="7"/>
     </row>
-    <row r="29" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="29" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B29" s="56"/>
       <c r="C29" s="42" t="s">
         <v>209</v>
@@ -4472,7 +4455,7 @@
       <c r="AI29" s="45"/>
       <c r="AJ29" s="7"/>
     </row>
-    <row r="30" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="30" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B30" s="56"/>
       <c r="C30" s="42" t="s">
         <v>214</v>
@@ -4577,7 +4560,7 @@
       <c r="AI30" s="45"/>
       <c r="AJ30" s="7"/>
     </row>
-    <row r="31" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="31" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B31" s="56"/>
       <c r="C31" s="42" t="s">
         <v>131</v>
@@ -4682,7 +4665,7 @@
       <c r="AI31" s="45"/>
       <c r="AJ31" s="7"/>
     </row>
-    <row r="32" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="32" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B32" s="56"/>
       <c r="C32" s="42" t="s">
         <v>132</v>
@@ -4789,7 +4772,7 @@
       <c r="AI32" s="45"/>
       <c r="AJ32" s="7"/>
     </row>
-    <row r="33" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="33" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B33" s="56"/>
       <c r="C33" s="42" t="s">
         <v>133</v>
@@ -4896,7 +4879,7 @@
       <c r="AI33" s="45"/>
       <c r="AJ33" s="7"/>
     </row>
-    <row r="34" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="34" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B34" s="56"/>
       <c r="C34" s="42" t="s">
         <v>134</v>
@@ -5003,7 +4986,7 @@
       <c r="AI34" s="45"/>
       <c r="AJ34" s="7"/>
     </row>
-    <row r="35" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="35" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B35" s="56"/>
       <c r="C35" s="42" t="s">
         <v>135</v>
@@ -5110,7 +5093,7 @@
       <c r="AI35" s="45"/>
       <c r="AJ35" s="7"/>
     </row>
-    <row r="36" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="36" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B36" s="56"/>
       <c r="C36" s="42" t="s">
         <v>136</v>
@@ -5217,7 +5200,7 @@
       <c r="AI36" s="45"/>
       <c r="AJ36" s="7"/>
     </row>
-    <row r="37" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="37" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
       <c r="C37" s="42" t="s">
         <v>137</v>
@@ -5324,7 +5307,7 @@
       <c r="AI37" s="45"/>
       <c r="AJ37" s="7"/>
     </row>
-    <row r="38" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="38" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B38" s="56"/>
       <c r="C38" s="42" t="s">
         <v>138</v>
@@ -5431,7 +5414,7 @@
       <c r="AI38" s="45"/>
       <c r="AJ38" s="7"/>
     </row>
-    <row r="39" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="39" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B39" s="56"/>
       <c r="C39" s="42" t="s">
         <v>139</v>
@@ -5538,7 +5521,7 @@
       <c r="AI39" s="45"/>
       <c r="AJ39" s="7"/>
     </row>
-    <row r="40" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="40" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B40" s="56"/>
       <c r="C40" s="42" t="s">
         <v>140</v>
@@ -5645,7 +5628,7 @@
       <c r="AI40" s="45"/>
       <c r="AJ40" s="7"/>
     </row>
-    <row r="41" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="41" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B41" s="56"/>
       <c r="C41" s="42" t="s">
         <v>141</v>
@@ -5752,7 +5735,7 @@
       <c r="AI41" s="45"/>
       <c r="AJ41" s="7"/>
     </row>
-    <row r="42" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="42" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B42" s="56"/>
       <c r="C42" s="42" t="s">
         <v>142</v>
@@ -5859,7 +5842,7 @@
       <c r="AI42" s="45"/>
       <c r="AJ42" s="7"/>
     </row>
-    <row r="43" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="43" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B43" s="56"/>
       <c r="C43" s="42" t="s">
         <v>143</v>
@@ -5966,7 +5949,7 @@
       <c r="AI43" s="45"/>
       <c r="AJ43" s="7"/>
     </row>
-    <row r="44" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="44" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B44" s="56"/>
       <c r="C44" s="42" t="s">
         <v>144</v>
@@ -6073,7 +6056,7 @@
       <c r="AI44" s="45"/>
       <c r="AJ44" s="7"/>
     </row>
-    <row r="45" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="45" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B45" s="56"/>
       <c r="C45" s="42" t="s">
         <v>145</v>
@@ -6178,7 +6161,7 @@
       <c r="AI45" s="45"/>
       <c r="AJ45" s="7"/>
     </row>
-    <row r="46" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="46" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B46" s="56"/>
       <c r="C46" s="42" t="s">
         <v>146</v>
@@ -6283,7 +6266,7 @@
       <c r="AI46" s="45"/>
       <c r="AJ46" s="7"/>
     </row>
-    <row r="47" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="47" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B47" s="56"/>
       <c r="C47" s="42" t="s">
         <v>147</v>
@@ -6390,7 +6373,7 @@
       <c r="AI47" s="45"/>
       <c r="AJ47" s="7"/>
     </row>
-    <row r="48" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="48" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B48" s="56"/>
       <c r="C48" s="42" t="s">
         <v>148</v>
@@ -6497,7 +6480,7 @@
       <c r="AI48" s="45"/>
       <c r="AJ48" s="7"/>
     </row>
-    <row r="49" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="49" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B49" s="56"/>
       <c r="C49" s="42" t="s">
         <v>149</v>
@@ -6604,7 +6587,7 @@
       <c r="AI49" s="45"/>
       <c r="AJ49" s="7"/>
     </row>
-    <row r="50" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="50" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B50" s="56"/>
       <c r="C50" s="42" t="s">
         <v>150</v>
@@ -6711,7 +6694,7 @@
       <c r="AI50" s="45"/>
       <c r="AJ50" s="7"/>
     </row>
-    <row r="51" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="51" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B51" s="56"/>
       <c r="C51" s="42" t="s">
         <v>151</v>
@@ -6818,7 +6801,7 @@
       <c r="AI51" s="45"/>
       <c r="AJ51" s="7"/>
     </row>
-    <row r="52" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="52" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B52" s="56"/>
       <c r="C52" s="42" t="s">
         <v>152</v>
@@ -6923,7 +6906,7 @@
       <c r="AI52" s="45"/>
       <c r="AJ52" s="7"/>
     </row>
-    <row r="53" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="53" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B53" s="56"/>
       <c r="C53" s="42" t="s">
         <v>200</v>
@@ -7030,7 +7013,7 @@
       </c>
       <c r="AJ53" s="7"/>
     </row>
-    <row r="54" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="54" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B54" s="56"/>
       <c r="C54" s="42" t="s">
         <v>224</v>
@@ -7137,7 +7120,7 @@
       </c>
       <c r="AJ54" s="7"/>
     </row>
-    <row r="55" spans="2:36" s="1" customFormat="1" ht="11.25">
+    <row r="55" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B55" s="56"/>
       <c r="C55" s="21"/>
       <c r="D55" s="21"/>
@@ -7174,7 +7157,7 @@
       <c r="AI55" s="21"/>
       <c r="AJ55" s="7"/>
     </row>
-    <row r="56" spans="2:36" s="1" customFormat="1">
+    <row r="56" spans="2:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="20"/>
       <c r="C56" s="21"/>
       <c r="D56" s="47"/>
@@ -7211,7 +7194,7 @@
       <c r="AI56" s="55"/>
       <c r="AJ56" s="7"/>
     </row>
-    <row r="57" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1">
+    <row r="57" spans="2:36" s="1" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -7248,7 +7231,7 @@
       <c r="AI57" s="14"/>
       <c r="AJ57" s="15"/>
     </row>
-    <row r="58" spans="2:36" s="1" customFormat="1" ht="11.25"/>
+    <row r="58" spans="2:36" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="8">

--- a/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds.xlsx
+++ b/QuantLibXL/Data/XLS/080_Bond/010_BondDataBase/EUR_FloatingRateBonds.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="226">
   <si>
     <t>General Settings</t>
   </si>
@@ -760,9 +760,6 @@
   </si>
   <si>
     <t xml:space="preserve">BACRED 0 12/21/17 </t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1767,8 +1764,9 @@
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>226</v>
+      <c r="D8" s="11" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\080_Bond\010_BondDataBase\</v>
       </c>
       <c r="E8" s="10"/>
     </row>
@@ -2018,12 +2016,12 @@
         <v>31</v>
       </c>
       <c r="D6" s="25" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F9:J54,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="41" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F9:J54,SerializationPath&amp;FileName,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="41" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(D6)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
